--- a/BackTest/2020-01-22 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-22 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2811,6 +2883,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2854,6 +2927,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2895,6 +2969,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2934,6 +3009,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2977,6 +3053,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3020,6 +3097,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3059,6 +3137,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3102,6 +3181,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3145,6 +3225,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3180,6 +3261,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3219,6 +3301,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3262,6 +3345,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3305,6 +3389,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3344,6 +3429,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3387,6 +3473,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3430,6 +3517,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3469,6 +3557,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3512,6 +3601,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3555,6 +3645,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3598,6 +3689,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3641,6 +3733,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3684,6 +3777,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3727,6 +3821,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3770,6 +3865,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3813,6 +3909,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3856,6 +3953,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3899,6 +3997,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3942,6 +4041,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3985,6 +4085,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4028,6 +4129,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4071,6 +4173,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4114,6 +4217,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4157,6 +4261,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4200,6 +4305,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4243,6 +4349,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4286,6 +4393,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4329,6 +4437,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4372,6 +4481,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4415,6 +4525,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4458,6 +4569,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4501,6 +4613,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4542,6 +4655,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4583,6 +4697,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4624,6 +4739,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4667,6 +4783,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4708,6 +4825,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4749,6 +4867,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4790,6 +4909,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4831,6 +4951,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4872,6 +4993,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4913,6 +5035,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4954,6 +5077,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4994,6 +5118,9 @@
       </c>
       <c r="M121" t="n">
         <v>1.002042253521127</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.007792733528995</v>
       </c>
     </row>
     <row r="122">
@@ -5030,6 +5157,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5065,6 +5193,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5100,6 +5229,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5135,6 +5265,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5170,6 +5301,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5205,6 +5337,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5240,6 +5373,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5275,6 +5409,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-22 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="D2" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="F2" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>-620391.96331936</v>
+        <v>4298.740380640002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="n">
-        <v>990.9</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="F3" t="n">
-        <v>2059</v>
+        <v>3300</v>
       </c>
       <c r="G3" t="n">
-        <v>-622450.96331936</v>
+        <v>7598.740380640002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="C4" t="n">
-        <v>989.9</v>
+        <v>999</v>
       </c>
       <c r="D4" t="n">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="E4" t="n">
-        <v>989.9</v>
+        <v>999</v>
       </c>
       <c r="F4" t="n">
-        <v>1013.6314</v>
+        <v>2264.0047</v>
       </c>
       <c r="G4" t="n">
-        <v>-623464.59471936</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>993.5</v>
+        <v>999</v>
       </c>
       <c r="C5" t="n">
-        <v>993.5</v>
+        <v>999</v>
       </c>
       <c r="D5" t="n">
-        <v>993.5</v>
+        <v>999</v>
       </c>
       <c r="E5" t="n">
-        <v>993.5</v>
+        <v>999</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>594.8499</v>
       </c>
       <c r="G5" t="n">
-        <v>-623454.59471936</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>993.5</v>
+        <v>999</v>
       </c>
       <c r="C6" t="n">
-        <v>993.5</v>
+        <v>999</v>
       </c>
       <c r="D6" t="n">
-        <v>993.5</v>
+        <v>999</v>
       </c>
       <c r="E6" t="n">
-        <v>993.5</v>
+        <v>999</v>
       </c>
       <c r="F6" t="n">
-        <v>80.32259999999999</v>
+        <v>441.1453</v>
       </c>
       <c r="G6" t="n">
-        <v>-623454.59471936</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>993.8</v>
+        <v>999</v>
       </c>
       <c r="C7" t="n">
-        <v>993.8</v>
+        <v>999</v>
       </c>
       <c r="D7" t="n">
-        <v>993.8</v>
+        <v>999</v>
       </c>
       <c r="E7" t="n">
-        <v>993.8</v>
+        <v>999</v>
       </c>
       <c r="F7" t="n">
-        <v>2.90802978</v>
+        <v>0.0001</v>
       </c>
       <c r="G7" t="n">
-        <v>-623451.68668958</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>988.2</v>
+        <v>999</v>
       </c>
       <c r="C8" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="D8" t="n">
-        <v>988.2</v>
+        <v>999</v>
       </c>
       <c r="E8" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F8" t="n">
-        <v>855.8632</v>
+        <v>1.9979</v>
       </c>
       <c r="G8" t="n">
-        <v>-624307.54988958</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="C9" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="D9" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="E9" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F9" t="n">
-        <v>172.05</v>
+        <v>118.1899</v>
       </c>
       <c r="G9" t="n">
-        <v>-624307.54988958</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="C10" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="D10" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="E10" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F10" t="n">
-        <v>38.0169</v>
+        <v>188.7098</v>
       </c>
       <c r="G10" t="n">
-        <v>-624307.54988958</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="C11" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="D11" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="E11" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F11" t="n">
-        <v>62.82</v>
+        <v>31.604</v>
       </c>
       <c r="G11" t="n">
-        <v>-624307.54988958</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="C12" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="D12" t="n">
-        <v>988.1</v>
+        <v>1000</v>
       </c>
       <c r="E12" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F12" t="n">
-        <v>63.8561</v>
+        <v>135.307</v>
       </c>
       <c r="G12" t="n">
-        <v>-624307.54988958</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="C13" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="D13" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="E13" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F13" t="n">
-        <v>288.4949</v>
+        <v>158.6699</v>
       </c>
       <c r="G13" t="n">
-        <v>-624307.54988958</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="C14" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="D14" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="E14" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F14" t="n">
-        <v>36.7473</v>
+        <v>955.1633</v>
       </c>
       <c r="G14" t="n">
-        <v>-624307.54988958</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="C15" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="D15" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="E15" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F15" t="n">
-        <v>48.49</v>
+        <v>222.6979</v>
       </c>
       <c r="G15" t="n">
-        <v>-624307.54988958</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="C16" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="D16" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="E16" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F16" t="n">
-        <v>32.7805</v>
+        <v>527.58</v>
       </c>
       <c r="G16" t="n">
-        <v>-624307.54988958</v>
+        <v>5334.735680640002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="C17" t="n">
-        <v>988.1</v>
+        <v>1001</v>
       </c>
       <c r="D17" t="n">
-        <v>988.1</v>
+        <v>1001</v>
       </c>
       <c r="E17" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F17" t="n">
-        <v>32.9852</v>
+        <v>47356.86</v>
       </c>
       <c r="G17" t="n">
-        <v>-624307.54988958</v>
+        <v>52691.59568064001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>988.1</v>
+        <v>1001</v>
       </c>
       <c r="C18" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="D18" t="n">
-        <v>988.1</v>
+        <v>1002</v>
       </c>
       <c r="E18" t="n">
-        <v>988.1</v>
+        <v>999</v>
       </c>
       <c r="F18" t="n">
-        <v>90.4999</v>
+        <v>652012.2203</v>
       </c>
       <c r="G18" t="n">
-        <v>-624307.54988958</v>
+        <v>-599320.6246193601</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>991.8</v>
+        <v>999</v>
       </c>
       <c r="C19" t="n">
-        <v>991.8</v>
+        <v>988.2</v>
       </c>
       <c r="D19" t="n">
-        <v>991.8</v>
+        <v>999</v>
       </c>
       <c r="E19" t="n">
-        <v>991.8</v>
+        <v>988.2</v>
       </c>
       <c r="F19" t="n">
-        <v>1.8179</v>
+        <v>16606.1797</v>
       </c>
       <c r="G19" t="n">
-        <v>-624305.73198958</v>
+        <v>-615926.8043193601</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>988.1</v>
+        <v>994</v>
       </c>
       <c r="C20" t="n">
-        <v>988.1</v>
+        <v>994</v>
       </c>
       <c r="D20" t="n">
-        <v>988.1</v>
+        <v>994</v>
       </c>
       <c r="E20" t="n">
-        <v>988.1</v>
+        <v>994</v>
       </c>
       <c r="F20" t="n">
-        <v>33.782</v>
+        <v>34.2397</v>
       </c>
       <c r="G20" t="n">
-        <v>-624339.51398958</v>
+        <v>-615892.56461936</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>988.1</v>
+        <v>994</v>
       </c>
       <c r="C21" t="n">
-        <v>988.1</v>
+        <v>994</v>
       </c>
       <c r="D21" t="n">
-        <v>988.1</v>
+        <v>994</v>
       </c>
       <c r="E21" t="n">
-        <v>988.1</v>
+        <v>994</v>
       </c>
       <c r="F21" t="n">
-        <v>34.5487</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>-624339.51398958</v>
+        <v>-615892.56461936</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>993.7</v>
+        <v>994</v>
       </c>
       <c r="C22" t="n">
-        <v>993.7</v>
+        <v>994</v>
       </c>
       <c r="D22" t="n">
-        <v>993.7</v>
+        <v>994</v>
       </c>
       <c r="E22" t="n">
-        <v>993.7</v>
+        <v>994</v>
       </c>
       <c r="F22" t="n">
-        <v>201.26798832</v>
+        <v>3521.504</v>
       </c>
       <c r="G22" t="n">
-        <v>-624138.24600126</v>
+        <v>-615892.56461936</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>994.9</v>
+        <v>995</v>
       </c>
       <c r="C23" t="n">
-        <v>994.9</v>
+        <v>994</v>
       </c>
       <c r="D23" t="n">
-        <v>994.9</v>
+        <v>995</v>
       </c>
       <c r="E23" t="n">
-        <v>994.9</v>
+        <v>994</v>
       </c>
       <c r="F23" t="n">
-        <v>301.53784299</v>
+        <v>3900</v>
       </c>
       <c r="G23" t="n">
-        <v>-623836.70815827</v>
+        <v>-615892.56461936</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>995.8</v>
+        <v>994</v>
       </c>
       <c r="C24" t="n">
-        <v>995.8</v>
+        <v>994</v>
       </c>
       <c r="D24" t="n">
-        <v>995.8</v>
+        <v>994</v>
       </c>
       <c r="E24" t="n">
-        <v>995.8</v>
+        <v>994</v>
       </c>
       <c r="F24" t="n">
-        <v>4.46274352</v>
+        <v>826</v>
       </c>
       <c r="G24" t="n">
-        <v>-623832.24541475</v>
+        <v>-615892.56461936</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>994</v>
       </c>
       <c r="F25" t="n">
-        <v>35.6106</v>
+        <v>0.377</v>
       </c>
       <c r="G25" t="n">
-        <v>-623867.85601475</v>
+        <v>-615892.56461936</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C26" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D26" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E26" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F26" t="n">
-        <v>3326.3894</v>
+        <v>500</v>
       </c>
       <c r="G26" t="n">
-        <v>-623867.85601475</v>
+        <v>-616392.56461936</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>995</v>
+        <v>988.1</v>
       </c>
       <c r="C27" t="n">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D27" t="n">
-        <v>995</v>
+        <v>988.1</v>
       </c>
       <c r="E27" t="n">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F27" t="n">
-        <v>1563.6411</v>
+        <v>799.6398</v>
       </c>
       <c r="G27" t="n">
-        <v>-623867.85601475</v>
+        <v>-617192.20441936</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C28" t="n">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="D28" t="n">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="E28" t="n">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="F28" t="n">
-        <v>347.0609</v>
+        <v>1970</v>
       </c>
       <c r="G28" t="n">
-        <v>-623867.85601475</v>
+        <v>-619162.20441936</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C29" t="n">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="D29" t="n">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="E29" t="n">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="F29" t="n">
-        <v>437.5502</v>
+        <v>927.7465</v>
       </c>
       <c r="G29" t="n">
-        <v>-623867.85601475</v>
+        <v>-618234.45791936</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>994</v>
+        <v>999.8</v>
       </c>
       <c r="C30" t="n">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="D30" t="n">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="E30" t="n">
-        <v>994</v>
+        <v>999.8</v>
       </c>
       <c r="F30" t="n">
-        <v>39.76</v>
+        <v>2100.5054</v>
       </c>
       <c r="G30" t="n">
-        <v>-623867.85601475</v>
+        <v>-620334.96331936</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C31" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D31" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E31" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F31" t="n">
-        <v>1490</v>
+        <v>57</v>
       </c>
       <c r="G31" t="n">
-        <v>-623867.85601475</v>
+        <v>-620391.96331936</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C32" t="n">
-        <v>994</v>
+        <v>990.9</v>
       </c>
       <c r="D32" t="n">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E32" t="n">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F32" t="n">
-        <v>2945.1476</v>
+        <v>2059</v>
       </c>
       <c r="G32" t="n">
-        <v>-623867.85601475</v>
+        <v>-622450.96331936</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C33" t="n">
-        <v>993</v>
+        <v>989.9</v>
       </c>
       <c r="D33" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E33" t="n">
-        <v>993</v>
+        <v>989.9</v>
       </c>
       <c r="F33" t="n">
-        <v>1717</v>
+        <v>1013.6314</v>
       </c>
       <c r="G33" t="n">
-        <v>-625584.85601475</v>
+        <v>-623464.59471936</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>993</v>
+        <v>993.5</v>
       </c>
       <c r="C34" t="n">
-        <v>993</v>
+        <v>993.5</v>
       </c>
       <c r="D34" t="n">
-        <v>993</v>
+        <v>993.5</v>
       </c>
       <c r="E34" t="n">
-        <v>993</v>
+        <v>993.5</v>
       </c>
       <c r="F34" t="n">
-        <v>1370</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-625584.85601475</v>
+        <v>-623454.59471936</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>993</v>
+        <v>993.5</v>
       </c>
       <c r="C35" t="n">
-        <v>994</v>
+        <v>993.5</v>
       </c>
       <c r="D35" t="n">
-        <v>994</v>
+        <v>993.5</v>
       </c>
       <c r="E35" t="n">
-        <v>993</v>
+        <v>993.5</v>
       </c>
       <c r="F35" t="n">
-        <v>177.4074</v>
+        <v>80.32259999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623454.59471936</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>994</v>
+        <v>993.8</v>
       </c>
       <c r="C36" t="n">
-        <v>994</v>
+        <v>993.8</v>
       </c>
       <c r="D36" t="n">
-        <v>994</v>
+        <v>993.8</v>
       </c>
       <c r="E36" t="n">
-        <v>994</v>
+        <v>993.8</v>
       </c>
       <c r="F36" t="n">
-        <v>146.415</v>
+        <v>2.90802978</v>
       </c>
       <c r="G36" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623451.68668958</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>994</v>
+        <v>988.2</v>
       </c>
       <c r="C37" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D37" t="n">
-        <v>994</v>
+        <v>988.2</v>
       </c>
       <c r="E37" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F37" t="n">
-        <v>2547.1941</v>
+        <v>855.8632</v>
       </c>
       <c r="G37" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C38" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D38" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E38" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F38" t="n">
-        <v>116.8583</v>
+        <v>172.05</v>
       </c>
       <c r="G38" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C39" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D39" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E39" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F39" t="n">
-        <v>270.2406</v>
+        <v>38.0169</v>
       </c>
       <c r="G39" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C40" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D40" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E40" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F40" t="n">
-        <v>96.5889</v>
+        <v>62.82</v>
       </c>
       <c r="G40" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C41" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D41" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E41" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F41" t="n">
-        <v>476.2725</v>
+        <v>63.8561</v>
       </c>
       <c r="G41" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C42" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D42" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E42" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F42" t="n">
-        <v>513.9725</v>
+        <v>288.4949</v>
       </c>
       <c r="G42" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C43" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D43" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E43" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F43" t="n">
-        <v>78.6437</v>
+        <v>36.7473</v>
       </c>
       <c r="G43" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C44" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D44" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E44" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F44" t="n">
-        <v>617.33</v>
+        <v>48.49</v>
       </c>
       <c r="G44" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C45" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D45" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E45" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>32.7805</v>
       </c>
       <c r="G45" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C46" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D46" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E46" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F46" t="n">
-        <v>2542.525</v>
+        <v>32.9852</v>
       </c>
       <c r="G46" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C47" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D47" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E47" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F47" t="n">
-        <v>402.6196</v>
+        <v>90.4999</v>
       </c>
       <c r="G47" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624307.54988958</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>994</v>
+        <v>991.8</v>
       </c>
       <c r="C48" t="n">
-        <v>994</v>
+        <v>991.8</v>
       </c>
       <c r="D48" t="n">
-        <v>994</v>
+        <v>991.8</v>
       </c>
       <c r="E48" t="n">
-        <v>994</v>
+        <v>991.8</v>
       </c>
       <c r="F48" t="n">
-        <v>46.9914</v>
+        <v>1.8179</v>
       </c>
       <c r="G48" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624305.73198958</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C49" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D49" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E49" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F49" t="n">
-        <v>127.6834</v>
+        <v>33.782</v>
       </c>
       <c r="G49" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624339.51398958</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="C50" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="D50" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="E50" t="n">
-        <v>994</v>
+        <v>988.1</v>
       </c>
       <c r="F50" t="n">
-        <v>672.9018</v>
+        <v>34.5487</v>
       </c>
       <c r="G50" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624339.51398958</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>994</v>
+        <v>993.7</v>
       </c>
       <c r="C51" t="n">
-        <v>994</v>
+        <v>993.7</v>
       </c>
       <c r="D51" t="n">
-        <v>994</v>
+        <v>993.7</v>
       </c>
       <c r="E51" t="n">
-        <v>994</v>
+        <v>993.7</v>
       </c>
       <c r="F51" t="n">
-        <v>111.7045</v>
+        <v>201.26798832</v>
       </c>
       <c r="G51" t="n">
-        <v>-625407.4486147499</v>
+        <v>-624138.24600126</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>994</v>
+        <v>994.9</v>
       </c>
       <c r="C52" t="n">
-        <v>994</v>
+        <v>994.9</v>
       </c>
       <c r="D52" t="n">
-        <v>994</v>
+        <v>994.9</v>
       </c>
       <c r="E52" t="n">
-        <v>994</v>
+        <v>994.9</v>
       </c>
       <c r="F52" t="n">
-        <v>75.1069</v>
+        <v>301.53784299</v>
       </c>
       <c r="G52" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623836.70815827</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>994</v>
+        <v>995.8</v>
       </c>
       <c r="C53" t="n">
-        <v>994</v>
+        <v>995.8</v>
       </c>
       <c r="D53" t="n">
-        <v>994</v>
+        <v>995.8</v>
       </c>
       <c r="E53" t="n">
-        <v>994</v>
+        <v>995.8</v>
       </c>
       <c r="F53" t="n">
-        <v>546.2184999999999</v>
+        <v>4.46274352</v>
       </c>
       <c r="G53" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623832.24541475</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2322,10 +2322,10 @@
         <v>994</v>
       </c>
       <c r="F54" t="n">
-        <v>107.9423</v>
+        <v>35.6106</v>
       </c>
       <c r="G54" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623867.85601475</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>994</v>
       </c>
       <c r="F55" t="n">
-        <v>84.04519999999999</v>
+        <v>3326.3894</v>
       </c>
       <c r="G55" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623867.85601475</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C56" t="n">
         <v>994</v>
       </c>
       <c r="D56" t="n">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E56" t="n">
         <v>994</v>
       </c>
       <c r="F56" t="n">
-        <v>211.2378</v>
+        <v>1563.6411</v>
       </c>
       <c r="G56" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623867.85601475</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>994</v>
       </c>
       <c r="F57" t="n">
-        <v>1036.6009</v>
+        <v>347.0609</v>
       </c>
       <c r="G57" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623867.85601475</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>994</v>
       </c>
       <c r="F58" t="n">
-        <v>727.3181</v>
+        <v>437.5502</v>
       </c>
       <c r="G58" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623867.85601475</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2502,10 +2502,10 @@
         <v>994</v>
       </c>
       <c r="F59" t="n">
-        <v>135.8551</v>
+        <v>39.76</v>
       </c>
       <c r="G59" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623867.85601475</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>994</v>
       </c>
       <c r="F60" t="n">
-        <v>272.3588</v>
+        <v>1490</v>
       </c>
       <c r="G60" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623867.85601475</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>994</v>
       </c>
       <c r="F61" t="n">
-        <v>490.0968</v>
+        <v>2945.1476</v>
       </c>
       <c r="G61" t="n">
-        <v>-625407.4486147499</v>
+        <v>-623867.85601475</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2601,19 +2601,19 @@
         <v>994</v>
       </c>
       <c r="C62" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D62" t="n">
         <v>994</v>
       </c>
       <c r="E62" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F62" t="n">
-        <v>2759.7855</v>
+        <v>1717</v>
       </c>
       <c r="G62" t="n">
-        <v>-625407.4486147499</v>
+        <v>-625584.85601475</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C63" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D63" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E63" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F63" t="n">
-        <v>155.3535</v>
+        <v>1370</v>
       </c>
       <c r="G63" t="n">
-        <v>-625407.4486147499</v>
+        <v>-625584.85601475</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,7 +2670,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C64" t="n">
         <v>994</v>
@@ -2679,10 +2679,10 @@
         <v>994</v>
       </c>
       <c r="E64" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F64" t="n">
-        <v>1057.33</v>
+        <v>177.4074</v>
       </c>
       <c r="G64" t="n">
         <v>-625407.4486147499</v>
@@ -2718,7 +2718,7 @@
         <v>994</v>
       </c>
       <c r="F65" t="n">
-        <v>3198.35</v>
+        <v>146.415</v>
       </c>
       <c r="G65" t="n">
         <v>-625407.4486147499</v>
@@ -2754,7 +2754,7 @@
         <v>994</v>
       </c>
       <c r="F66" t="n">
-        <v>1065.03</v>
+        <v>2547.1941</v>
       </c>
       <c r="G66" t="n">
         <v>-625407.4486147499</v>
@@ -2790,7 +2790,7 @@
         <v>994</v>
       </c>
       <c r="F67" t="n">
-        <v>1699.1002</v>
+        <v>116.8583</v>
       </c>
       <c r="G67" t="n">
         <v>-625407.4486147499</v>
@@ -2826,7 +2826,7 @@
         <v>994</v>
       </c>
       <c r="F68" t="n">
-        <v>3064.03</v>
+        <v>270.2406</v>
       </c>
       <c r="G68" t="n">
         <v>-625407.4486147499</v>
@@ -2862,23 +2862,19 @@
         <v>994</v>
       </c>
       <c r="F69" t="n">
-        <v>1241.6707</v>
+        <v>96.5889</v>
       </c>
       <c r="G69" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>994</v>
-      </c>
-      <c r="K69" t="n">
-        <v>994</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
@@ -2902,28 +2898,20 @@
         <v>994</v>
       </c>
       <c r="F70" t="n">
-        <v>4409.3024</v>
+        <v>476.2725</v>
       </c>
       <c r="G70" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>994</v>
-      </c>
-      <c r="K70" t="n">
-        <v>994</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2946,7 +2934,7 @@
         <v>994</v>
       </c>
       <c r="F71" t="n">
-        <v>2004</v>
+        <v>513.9725</v>
       </c>
       <c r="G71" t="n">
         <v>-625407.4486147499</v>
@@ -2958,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>994</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2988,23 +2970,19 @@
         <v>994</v>
       </c>
       <c r="F72" t="n">
-        <v>1372</v>
+        <v>78.6437</v>
       </c>
       <c r="G72" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>994</v>
-      </c>
-      <c r="K72" t="n">
-        <v>994</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
@@ -3028,28 +3006,20 @@
         <v>994</v>
       </c>
       <c r="F73" t="n">
-        <v>650.4689</v>
+        <v>617.33</v>
       </c>
       <c r="G73" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>994</v>
-      </c>
-      <c r="K73" t="n">
-        <v>994</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3072,28 +3042,20 @@
         <v>994</v>
       </c>
       <c r="F74" t="n">
-        <v>12542.1665</v>
+        <v>300</v>
       </c>
       <c r="G74" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>994</v>
-      </c>
-      <c r="K74" t="n">
-        <v>994</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3116,23 +3078,19 @@
         <v>994</v>
       </c>
       <c r="F75" t="n">
-        <v>2175</v>
+        <v>2542.525</v>
       </c>
       <c r="G75" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>994</v>
-      </c>
-      <c r="K75" t="n">
-        <v>994</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
@@ -3156,28 +3114,20 @@
         <v>994</v>
       </c>
       <c r="F76" t="n">
-        <v>9829.5378</v>
+        <v>402.6196</v>
       </c>
       <c r="G76" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>994</v>
-      </c>
-      <c r="K76" t="n">
-        <v>994</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3200,28 +3150,20 @@
         <v>994</v>
       </c>
       <c r="F77" t="n">
-        <v>2135.4629</v>
+        <v>46.9914</v>
       </c>
       <c r="G77" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>994</v>
-      </c>
-      <c r="K77" t="n">
-        <v>994</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3244,7 +3186,7 @@
         <v>994</v>
       </c>
       <c r="F78" t="n">
-        <v>385.7956</v>
+        <v>127.6834</v>
       </c>
       <c r="G78" t="n">
         <v>-625407.4486147499</v>
@@ -3280,23 +3222,19 @@
         <v>994</v>
       </c>
       <c r="F79" t="n">
-        <v>1572.157</v>
+        <v>672.9018</v>
       </c>
       <c r="G79" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>994</v>
-      </c>
-      <c r="K79" t="n">
-        <v>994</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3320,28 +3258,20 @@
         <v>994</v>
       </c>
       <c r="F80" t="n">
-        <v>1727.0244</v>
+        <v>111.7045</v>
       </c>
       <c r="G80" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>994</v>
-      </c>
-      <c r="K80" t="n">
-        <v>994</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3364,28 +3294,20 @@
         <v>994</v>
       </c>
       <c r="F81" t="n">
-        <v>692.8955</v>
+        <v>75.1069</v>
       </c>
       <c r="G81" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>994</v>
-      </c>
-      <c r="K81" t="n">
-        <v>994</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3408,23 +3330,19 @@
         <v>994</v>
       </c>
       <c r="F82" t="n">
-        <v>1842.5726</v>
+        <v>546.2184999999999</v>
       </c>
       <c r="G82" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>994</v>
-      </c>
-      <c r="K82" t="n">
-        <v>994</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3448,28 +3366,20 @@
         <v>994</v>
       </c>
       <c r="F83" t="n">
-        <v>888.7165</v>
+        <v>107.9423</v>
       </c>
       <c r="G83" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>994</v>
-      </c>
-      <c r="K83" t="n">
-        <v>994</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3492,28 +3402,20 @@
         <v>994</v>
       </c>
       <c r="F84" t="n">
-        <v>5030.2</v>
+        <v>84.04519999999999</v>
       </c>
       <c r="G84" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>994</v>
-      </c>
-      <c r="K84" t="n">
-        <v>994</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3536,23 +3438,19 @@
         <v>994</v>
       </c>
       <c r="F85" t="n">
-        <v>2588.8266</v>
+        <v>211.2378</v>
       </c>
       <c r="G85" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>994</v>
-      </c>
-      <c r="K85" t="n">
-        <v>994</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
@@ -3576,28 +3474,20 @@
         <v>994</v>
       </c>
       <c r="F86" t="n">
-        <v>256.2455</v>
+        <v>1036.6009</v>
       </c>
       <c r="G86" t="n">
         <v>-625407.4486147499</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>994</v>
-      </c>
-      <c r="K86" t="n">
-        <v>994</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3608,40 +3498,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>993.1</v>
+        <v>994</v>
       </c>
       <c r="C87" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D87" t="n">
-        <v>993.1</v>
+        <v>994</v>
       </c>
       <c r="E87" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F87" t="n">
-        <v>550</v>
+        <v>727.3181</v>
       </c>
       <c r="G87" t="n">
-        <v>-625957.4486147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>994</v>
-      </c>
-      <c r="K87" t="n">
-        <v>994</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3652,40 +3534,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C88" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D88" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E88" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F88" t="n">
-        <v>299.1306</v>
+        <v>135.8551</v>
       </c>
       <c r="G88" t="n">
-        <v>-625957.4486147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>993</v>
-      </c>
-      <c r="K88" t="n">
-        <v>994</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3699,37 +3573,29 @@
         <v>994</v>
       </c>
       <c r="C89" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D89" t="n">
         <v>994</v>
       </c>
       <c r="E89" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F89" t="n">
-        <v>191.0152</v>
+        <v>272.3588</v>
       </c>
       <c r="G89" t="n">
-        <v>-625957.4486147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>993</v>
-      </c>
-      <c r="K89" t="n">
-        <v>994</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3752,28 +3618,20 @@
         <v>994</v>
       </c>
       <c r="F90" t="n">
-        <v>254.9579</v>
+        <v>490.0968</v>
       </c>
       <c r="G90" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>993</v>
-      </c>
-      <c r="K90" t="n">
-        <v>994</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3796,10 +3654,10 @@
         <v>994</v>
       </c>
       <c r="F91" t="n">
-        <v>1512.1793</v>
+        <v>2759.7855</v>
       </c>
       <c r="G91" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3813,11 +3671,7 @@
       <c r="K91" t="n">
         <v>994</v>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +3694,10 @@
         <v>994</v>
       </c>
       <c r="F92" t="n">
-        <v>220</v>
+        <v>155.3535</v>
       </c>
       <c r="G92" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -3859,7 +3713,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3884,10 +3738,10 @@
         <v>994</v>
       </c>
       <c r="F93" t="n">
-        <v>620</v>
+        <v>1057.33</v>
       </c>
       <c r="G93" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3903,7 +3757,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3925,13 +3779,13 @@
         <v>994</v>
       </c>
       <c r="E94" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F94" t="n">
-        <v>684.7947</v>
+        <v>3198.35</v>
       </c>
       <c r="G94" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -3945,11 +3799,7 @@
       <c r="K94" t="n">
         <v>994</v>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3960,7 +3810,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C95" t="n">
         <v>994</v>
@@ -3969,13 +3819,13 @@
         <v>994</v>
       </c>
       <c r="E95" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F95" t="n">
-        <v>820</v>
+        <v>1065.03</v>
       </c>
       <c r="G95" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -3991,7 +3841,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -4016,10 +3866,10 @@
         <v>994</v>
       </c>
       <c r="F96" t="n">
-        <v>251.8292</v>
+        <v>1699.1002</v>
       </c>
       <c r="G96" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -4035,7 +3885,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -4060,10 +3910,10 @@
         <v>994</v>
       </c>
       <c r="F97" t="n">
-        <v>94.6183</v>
+        <v>3064.03</v>
       </c>
       <c r="G97" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4077,11 +3927,7 @@
       <c r="K97" t="n">
         <v>994</v>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4104,10 +3950,10 @@
         <v>994</v>
       </c>
       <c r="F98" t="n">
-        <v>153.416</v>
+        <v>1241.6707</v>
       </c>
       <c r="G98" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4123,7 +3969,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -4148,10 +3994,10 @@
         <v>994</v>
       </c>
       <c r="F99" t="n">
-        <v>408.2511</v>
+        <v>4409.3024</v>
       </c>
       <c r="G99" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -4167,7 +4013,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -4192,10 +4038,10 @@
         <v>994</v>
       </c>
       <c r="F100" t="n">
-        <v>34.1102</v>
+        <v>2004</v>
       </c>
       <c r="G100" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4209,11 +4055,7 @@
       <c r="K100" t="n">
         <v>994</v>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4236,10 +4078,10 @@
         <v>994</v>
       </c>
       <c r="F101" t="n">
-        <v>235.4151</v>
+        <v>1372</v>
       </c>
       <c r="G101" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -4255,7 +4097,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -4280,10 +4122,10 @@
         <v>994</v>
       </c>
       <c r="F102" t="n">
-        <v>205</v>
+        <v>650.4689</v>
       </c>
       <c r="G102" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -4299,7 +4141,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M102" t="n">
@@ -4324,10 +4166,10 @@
         <v>994</v>
       </c>
       <c r="F103" t="n">
-        <v>860.3591</v>
+        <v>12542.1665</v>
       </c>
       <c r="G103" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
@@ -4341,11 +4183,7 @@
       <c r="K103" t="n">
         <v>994</v>
       </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4368,10 +4206,10 @@
         <v>994</v>
       </c>
       <c r="F104" t="n">
-        <v>858.1438000000001</v>
+        <v>2175</v>
       </c>
       <c r="G104" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4387,7 +4225,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -4412,10 +4250,10 @@
         <v>994</v>
       </c>
       <c r="F105" t="n">
-        <v>1592.0436</v>
+        <v>9829.5378</v>
       </c>
       <c r="G105" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4431,7 +4269,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -4456,10 +4294,10 @@
         <v>994</v>
       </c>
       <c r="F106" t="n">
-        <v>133.699</v>
+        <v>2135.4629</v>
       </c>
       <c r="G106" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4473,11 +4311,7 @@
       <c r="K106" t="n">
         <v>994</v>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4497,13 +4331,13 @@
         <v>994</v>
       </c>
       <c r="E107" t="n">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F107" t="n">
-        <v>267.5806</v>
+        <v>385.7956</v>
       </c>
       <c r="G107" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4519,7 +4353,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -4544,10 +4378,10 @@
         <v>994</v>
       </c>
       <c r="F108" t="n">
-        <v>2786.2773</v>
+        <v>1572.157</v>
       </c>
       <c r="G108" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -4563,7 +4397,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M108" t="n">
@@ -4588,10 +4422,10 @@
         <v>994</v>
       </c>
       <c r="F109" t="n">
-        <v>11579.0013</v>
+        <v>1727.0244</v>
       </c>
       <c r="G109" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4605,11 +4439,7 @@
       <c r="K109" t="n">
         <v>994</v>
       </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4632,24 +4462,26 @@
         <v>994</v>
       </c>
       <c r="F110" t="n">
-        <v>5590.2399</v>
+        <v>692.8955</v>
       </c>
       <c r="G110" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>994</v>
+      </c>
       <c r="K110" t="n">
         <v>994</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
@@ -4674,24 +4506,26 @@
         <v>994</v>
       </c>
       <c r="F111" t="n">
-        <v>1632.9337</v>
+        <v>1842.5726</v>
       </c>
       <c r="G111" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>994</v>
+      </c>
       <c r="K111" t="n">
         <v>994</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -4716,26 +4550,24 @@
         <v>994</v>
       </c>
       <c r="F112" t="n">
-        <v>5380.2981</v>
+        <v>888.7165</v>
       </c>
       <c r="G112" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>994</v>
+      </c>
       <c r="K112" t="n">
         <v>994</v>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4758,10 +4590,10 @@
         <v>994</v>
       </c>
       <c r="F113" t="n">
-        <v>7.0682</v>
+        <v>5030.2</v>
       </c>
       <c r="G113" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4777,7 +4609,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M113" t="n">
@@ -4802,24 +4634,26 @@
         <v>994</v>
       </c>
       <c r="F114" t="n">
-        <v>1470.6596</v>
+        <v>2588.8266</v>
       </c>
       <c r="G114" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>994</v>
+      </c>
       <c r="K114" t="n">
         <v>994</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -4844,26 +4678,24 @@
         <v>994</v>
       </c>
       <c r="F115" t="n">
-        <v>3386.3455</v>
+        <v>256.2455</v>
       </c>
       <c r="G115" t="n">
-        <v>-625702.4907147499</v>
+        <v>-625407.4486147499</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>994</v>
+      </c>
       <c r="K115" t="n">
         <v>994</v>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4874,36 +4706,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>994</v>
+        <v>993.1</v>
       </c>
       <c r="C116" t="n">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D116" t="n">
-        <v>995</v>
+        <v>993.1</v>
       </c>
       <c r="E116" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F116" t="n">
-        <v>15222.9949</v>
+        <v>550</v>
       </c>
       <c r="G116" t="n">
-        <v>-610479.4958147499</v>
+        <v>-625957.4486147499</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>994</v>
+      </c>
       <c r="K116" t="n">
         <v>994</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -4916,30 +4750,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C117" t="n">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D117" t="n">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E117" t="n">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F117" t="n">
-        <v>6046.7589</v>
+        <v>299.1306</v>
       </c>
       <c r="G117" t="n">
-        <v>-610479.4958147499</v>
+        <v>-625957.4486147499</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>993</v>
+      </c>
       <c r="K117" t="n">
         <v>994</v>
       </c>
@@ -4958,30 +4794,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C118" t="n">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D118" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E118" t="n">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F118" t="n">
-        <v>3846</v>
+        <v>191.0152</v>
       </c>
       <c r="G118" t="n">
-        <v>-610479.4958147499</v>
+        <v>-625957.4486147499</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>993</v>
+      </c>
       <c r="K118" t="n">
         <v>994</v>
       </c>
@@ -5000,30 +4838,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C119" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="D119" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E119" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F119" t="n">
-        <v>199.1442</v>
+        <v>254.9579</v>
       </c>
       <c r="G119" t="n">
-        <v>-610280.3516147499</v>
+        <v>-625702.4907147499</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>993</v>
+      </c>
       <c r="K119" t="n">
         <v>994</v>
       </c>
@@ -5042,30 +4882,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C120" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="D120" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E120" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F120" t="n">
-        <v>701.0208</v>
+        <v>1512.1793</v>
       </c>
       <c r="G120" t="n">
-        <v>-610280.3516147499</v>
+        <v>-625702.4907147499</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>994</v>
+      </c>
       <c r="K120" t="n">
         <v>994</v>
       </c>
@@ -5084,76 +4926,84 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="C121" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="D121" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="E121" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F121" t="n">
-        <v>1094.9703</v>
+        <v>220</v>
       </c>
       <c r="G121" t="n">
-        <v>-609185.3813147498</v>
+        <v>-625702.4907147499</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>994</v>
+      </c>
       <c r="K121" t="n">
         <v>994</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>1.002042253521127</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.007792733528995</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="C122" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="D122" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="E122" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="F122" t="n">
-        <v>50</v>
+        <v>620</v>
       </c>
       <c r="G122" t="n">
-        <v>-609185.3813147498</v>
+        <v>-625702.4907147499</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>994</v>
+      </c>
+      <c r="K122" t="n">
+        <v>994</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5164,32 +5014,40 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="C123" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="D123" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="E123" t="n">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F123" t="n">
-        <v>175</v>
+        <v>684.7947</v>
       </c>
       <c r="G123" t="n">
-        <v>-609185.3813147498</v>
+        <v>-625702.4907147499</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>994</v>
+      </c>
+      <c r="K123" t="n">
+        <v>994</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5200,32 +5058,40 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="C124" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="D124" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="E124" t="n">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F124" t="n">
-        <v>540</v>
+        <v>820</v>
       </c>
       <c r="G124" t="n">
-        <v>-609185.3813147498</v>
+        <v>-625702.4907147499</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>994</v>
+      </c>
+      <c r="K124" t="n">
+        <v>994</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5236,32 +5102,40 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="C125" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="D125" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="E125" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="F125" t="n">
-        <v>769.0416</v>
+        <v>251.8292</v>
       </c>
       <c r="G125" t="n">
-        <v>-609185.3813147498</v>
+        <v>-625702.4907147499</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>994</v>
+      </c>
+      <c r="K125" t="n">
+        <v>994</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5272,32 +5146,40 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="C126" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="D126" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="E126" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="F126" t="n">
-        <v>695</v>
+        <v>94.6183</v>
       </c>
       <c r="G126" t="n">
-        <v>-609185.3813147498</v>
+        <v>-625702.4907147499</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>994</v>
+      </c>
+      <c r="K126" t="n">
+        <v>994</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5308,32 +5190,40 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="C127" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="D127" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="E127" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="F127" t="n">
-        <v>6230.1171</v>
+        <v>153.416</v>
       </c>
       <c r="G127" t="n">
-        <v>-609185.3813147498</v>
+        <v>-625702.4907147499</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>994</v>
+      </c>
+      <c r="K127" t="n">
+        <v>994</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5344,32 +5234,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="C128" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="D128" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="E128" t="n">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="F128" t="n">
-        <v>170</v>
+        <v>408.2511</v>
       </c>
       <c r="G128" t="n">
-        <v>-609185.3813147498</v>
+        <v>-625702.4907147499</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>994</v>
+      </c>
+      <c r="K128" t="n">
+        <v>994</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5380,36 +5278,1300 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>994</v>
+      </c>
+      <c r="C129" t="n">
+        <v>994</v>
+      </c>
+      <c r="D129" t="n">
+        <v>994</v>
+      </c>
+      <c r="E129" t="n">
+        <v>994</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34.1102</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>994</v>
+      </c>
+      <c r="K129" t="n">
+        <v>994</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>994</v>
+      </c>
+      <c r="C130" t="n">
+        <v>994</v>
+      </c>
+      <c r="D130" t="n">
+        <v>994</v>
+      </c>
+      <c r="E130" t="n">
+        <v>994</v>
+      </c>
+      <c r="F130" t="n">
+        <v>235.4151</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>994</v>
+      </c>
+      <c r="K130" t="n">
+        <v>994</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>994</v>
+      </c>
+      <c r="C131" t="n">
+        <v>994</v>
+      </c>
+      <c r="D131" t="n">
+        <v>994</v>
+      </c>
+      <c r="E131" t="n">
+        <v>994</v>
+      </c>
+      <c r="F131" t="n">
+        <v>205</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>994</v>
+      </c>
+      <c r="K131" t="n">
+        <v>994</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>994</v>
+      </c>
+      <c r="C132" t="n">
+        <v>994</v>
+      </c>
+      <c r="D132" t="n">
+        <v>994</v>
+      </c>
+      <c r="E132" t="n">
+        <v>994</v>
+      </c>
+      <c r="F132" t="n">
+        <v>860.3591</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>994</v>
+      </c>
+      <c r="K132" t="n">
+        <v>994</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>994</v>
+      </c>
+      <c r="C133" t="n">
+        <v>994</v>
+      </c>
+      <c r="D133" t="n">
+        <v>994</v>
+      </c>
+      <c r="E133" t="n">
+        <v>994</v>
+      </c>
+      <c r="F133" t="n">
+        <v>858.1438000000001</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>994</v>
+      </c>
+      <c r="K133" t="n">
+        <v>994</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>994</v>
+      </c>
+      <c r="C134" t="n">
+        <v>994</v>
+      </c>
+      <c r="D134" t="n">
+        <v>994</v>
+      </c>
+      <c r="E134" t="n">
+        <v>994</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1592.0436</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>994</v>
+      </c>
+      <c r="K134" t="n">
+        <v>994</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>994</v>
+      </c>
+      <c r="C135" t="n">
+        <v>994</v>
+      </c>
+      <c r="D135" t="n">
+        <v>994</v>
+      </c>
+      <c r="E135" t="n">
+        <v>994</v>
+      </c>
+      <c r="F135" t="n">
+        <v>133.699</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>994</v>
+      </c>
+      <c r="K135" t="n">
+        <v>994</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>994</v>
+      </c>
+      <c r="C136" t="n">
+        <v>994</v>
+      </c>
+      <c r="D136" t="n">
+        <v>994</v>
+      </c>
+      <c r="E136" t="n">
+        <v>990</v>
+      </c>
+      <c r="F136" t="n">
+        <v>267.5806</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>994</v>
+      </c>
+      <c r="K136" t="n">
+        <v>994</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>994</v>
+      </c>
+      <c r="C137" t="n">
+        <v>994</v>
+      </c>
+      <c r="D137" t="n">
+        <v>994</v>
+      </c>
+      <c r="E137" t="n">
+        <v>994</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2786.2773</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>994</v>
+      </c>
+      <c r="K137" t="n">
+        <v>994</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>994</v>
+      </c>
+      <c r="C138" t="n">
+        <v>994</v>
+      </c>
+      <c r="D138" t="n">
+        <v>994</v>
+      </c>
+      <c r="E138" t="n">
+        <v>994</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11579.0013</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>994</v>
+      </c>
+      <c r="K138" t="n">
+        <v>994</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>994</v>
+      </c>
+      <c r="C139" t="n">
+        <v>994</v>
+      </c>
+      <c r="D139" t="n">
+        <v>994</v>
+      </c>
+      <c r="E139" t="n">
+        <v>994</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5590.2399</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>994</v>
+      </c>
+      <c r="K139" t="n">
+        <v>994</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>994</v>
+      </c>
+      <c r="C140" t="n">
+        <v>994</v>
+      </c>
+      <c r="D140" t="n">
+        <v>994</v>
+      </c>
+      <c r="E140" t="n">
+        <v>994</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1632.9337</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>994</v>
+      </c>
+      <c r="K140" t="n">
+        <v>994</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>994</v>
+      </c>
+      <c r="C141" t="n">
+        <v>994</v>
+      </c>
+      <c r="D141" t="n">
+        <v>994</v>
+      </c>
+      <c r="E141" t="n">
+        <v>994</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5380.2981</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>994</v>
+      </c>
+      <c r="K141" t="n">
+        <v>994</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>994</v>
+      </c>
+      <c r="C142" t="n">
+        <v>994</v>
+      </c>
+      <c r="D142" t="n">
+        <v>994</v>
+      </c>
+      <c r="E142" t="n">
+        <v>994</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7.0682</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>994</v>
+      </c>
+      <c r="K142" t="n">
+        <v>994</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>994</v>
+      </c>
+      <c r="C143" t="n">
+        <v>994</v>
+      </c>
+      <c r="D143" t="n">
+        <v>994</v>
+      </c>
+      <c r="E143" t="n">
+        <v>994</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1470.6596</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>994</v>
+      </c>
+      <c r="K143" t="n">
+        <v>994</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>994</v>
+      </c>
+      <c r="C144" t="n">
+        <v>994</v>
+      </c>
+      <c r="D144" t="n">
+        <v>994</v>
+      </c>
+      <c r="E144" t="n">
+        <v>994</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3386.3455</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-625702.4907147499</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>994</v>
+      </c>
+      <c r="K144" t="n">
+        <v>994</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>994</v>
+      </c>
+      <c r="C145" t="n">
+        <v>995</v>
+      </c>
+      <c r="D145" t="n">
+        <v>995</v>
+      </c>
+      <c r="E145" t="n">
+        <v>994</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15222.9949</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-610479.4958147499</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>994</v>
+      </c>
+      <c r="K145" t="n">
+        <v>994</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>995</v>
+      </c>
+      <c r="C146" t="n">
+        <v>995</v>
+      </c>
+      <c r="D146" t="n">
+        <v>995</v>
+      </c>
+      <c r="E146" t="n">
+        <v>995</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6046.7589</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-610479.4958147499</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>995</v>
+      </c>
+      <c r="K146" t="n">
+        <v>994</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>995</v>
+      </c>
+      <c r="C147" t="n">
+        <v>995</v>
+      </c>
+      <c r="D147" t="n">
+        <v>995</v>
+      </c>
+      <c r="E147" t="n">
+        <v>995</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3846</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-610479.4958147499</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>995</v>
+      </c>
+      <c r="K147" t="n">
+        <v>994</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>995</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E148" t="n">
+        <v>995</v>
+      </c>
+      <c r="F148" t="n">
+        <v>199.1442</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-610280.3516147499</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>995</v>
+      </c>
+      <c r="K148" t="n">
+        <v>994</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F149" t="n">
+        <v>701.0208</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-610280.3516147499</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>994</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>1001</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C150" t="n">
         <v>1001</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D150" t="n">
         <v>1001</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1094.9703</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-609185.3813147498</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>994</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>1001</v>
       </c>
-      <c r="F129" t="n">
+      <c r="C151" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>50</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-609185.3813147498</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>994</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>175</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-609185.3813147498</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>994</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F153" t="n">
+        <v>540</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-609185.3813147498</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>994</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F154" t="n">
+        <v>769.0416</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-609185.3813147498</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>994</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>695</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-609185.3813147498</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>994</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6230.1171</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-609185.3813147498</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>994</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>170</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-609185.3813147498</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>994</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F158" t="n">
         <v>10720.5299</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G158" t="n">
         <v>-609185.3813147498</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>994</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-22 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>52691.59568064001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-599320.6246193601</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-620334.96331936</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>994</v>
+      </c>
+      <c r="J74" t="n">
+        <v>994</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2866,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>994</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2905,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>994</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2944,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2977,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3010,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3043,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3076,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3109,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3142,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3175,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3208,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3239,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>994</v>
+      </c>
+      <c r="J86" t="n">
+        <v>994</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3278,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>994</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3317,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>994</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3356,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3387,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>994</v>
+      </c>
+      <c r="J90" t="n">
+        <v>994</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,22 +3424,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J91" t="n">
         <v>994</v>
       </c>
-      <c r="K91" t="n">
-        <v>994</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3700,26 +3465,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J92" t="n">
         <v>994</v>
       </c>
-      <c r="K92" t="n">
-        <v>994</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3744,26 +3506,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J93" t="n">
         <v>994</v>
       </c>
-      <c r="K93" t="n">
-        <v>994</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3788,22 +3543,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J94" t="n">
         <v>994</v>
       </c>
-      <c r="K94" t="n">
-        <v>994</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3828,26 +3584,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J95" t="n">
         <v>994</v>
       </c>
-      <c r="K95" t="n">
-        <v>994</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3872,26 +3625,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J96" t="n">
         <v>994</v>
       </c>
-      <c r="K96" t="n">
-        <v>994</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3916,22 +3662,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J97" t="n">
         <v>994</v>
       </c>
-      <c r="K97" t="n">
-        <v>994</v>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3956,26 +3703,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J98" t="n">
         <v>994</v>
       </c>
-      <c r="K98" t="n">
-        <v>994</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4000,26 +3744,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J99" t="n">
         <v>994</v>
       </c>
-      <c r="K99" t="n">
-        <v>994</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4044,22 +3781,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J100" t="n">
         <v>994</v>
       </c>
-      <c r="K100" t="n">
-        <v>994</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4084,26 +3822,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J101" t="n">
         <v>994</v>
       </c>
-      <c r="K101" t="n">
-        <v>994</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4128,26 +3863,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J102" t="n">
         <v>994</v>
       </c>
-      <c r="K102" t="n">
-        <v>994</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4172,22 +3900,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J103" t="n">
         <v>994</v>
       </c>
-      <c r="K103" t="n">
-        <v>994</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4212,26 +3941,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J104" t="n">
         <v>994</v>
       </c>
-      <c r="K104" t="n">
-        <v>994</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4256,26 +3982,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J105" t="n">
         <v>994</v>
       </c>
-      <c r="K105" t="n">
-        <v>994</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4300,22 +4019,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J106" t="n">
         <v>994</v>
       </c>
-      <c r="K106" t="n">
-        <v>994</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4340,26 +4060,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J107" t="n">
         <v>994</v>
       </c>
-      <c r="K107" t="n">
-        <v>994</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4384,26 +4101,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J108" t="n">
         <v>994</v>
       </c>
-      <c r="K108" t="n">
-        <v>994</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4428,22 +4138,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J109" t="n">
         <v>994</v>
       </c>
-      <c r="K109" t="n">
-        <v>994</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4468,26 +4179,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J110" t="n">
         <v>994</v>
       </c>
-      <c r="K110" t="n">
-        <v>994</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4512,26 +4220,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J111" t="n">
         <v>994</v>
       </c>
-      <c r="K111" t="n">
-        <v>994</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4556,22 +4257,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J112" t="n">
         <v>994</v>
       </c>
-      <c r="K112" t="n">
-        <v>994</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4596,26 +4298,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J113" t="n">
         <v>994</v>
       </c>
-      <c r="K113" t="n">
-        <v>994</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4640,26 +4339,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J114" t="n">
         <v>994</v>
       </c>
-      <c r="K114" t="n">
-        <v>994</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4684,22 +4376,23 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J115" t="n">
         <v>994</v>
       </c>
-      <c r="K115" t="n">
-        <v>994</v>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4724,26 +4417,23 @@
         <v>-625957.4486147499</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J116" t="n">
         <v>994</v>
       </c>
-      <c r="K116" t="n">
-        <v>994</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4768,26 +4458,23 @@
         <v>-625957.4486147499</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J117" t="n">
-        <v>993</v>
-      </c>
-      <c r="K117" t="n">
-        <v>994</v>
-      </c>
-      <c r="L117" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4812,26 +4499,23 @@
         <v>-625957.4486147499</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J118" t="n">
-        <v>993</v>
-      </c>
-      <c r="K118" t="n">
-        <v>994</v>
-      </c>
-      <c r="L118" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4856,26 +4540,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J119" t="n">
-        <v>993</v>
-      </c>
-      <c r="K119" t="n">
-        <v>994</v>
-      </c>
-      <c r="L119" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4900,26 +4581,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J120" t="n">
         <v>994</v>
       </c>
-      <c r="K120" t="n">
-        <v>994</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4944,26 +4622,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J121" t="n">
         <v>994</v>
       </c>
-      <c r="K121" t="n">
-        <v>994</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4988,26 +4663,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J122" t="n">
         <v>994</v>
       </c>
-      <c r="K122" t="n">
-        <v>994</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5032,26 +4704,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J123" t="n">
         <v>994</v>
       </c>
-      <c r="K123" t="n">
-        <v>994</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5076,26 +4745,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J124" t="n">
         <v>994</v>
       </c>
-      <c r="K124" t="n">
-        <v>994</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5120,26 +4786,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J125" t="n">
         <v>994</v>
       </c>
-      <c r="K125" t="n">
-        <v>994</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5164,26 +4827,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J126" t="n">
         <v>994</v>
       </c>
-      <c r="K126" t="n">
-        <v>994</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5208,26 +4868,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J127" t="n">
         <v>994</v>
       </c>
-      <c r="K127" t="n">
-        <v>994</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5252,26 +4909,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J128" t="n">
         <v>994</v>
       </c>
-      <c r="K128" t="n">
-        <v>994</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5296,26 +4950,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J129" t="n">
         <v>994</v>
       </c>
-      <c r="K129" t="n">
-        <v>994</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5340,26 +4991,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J130" t="n">
         <v>994</v>
       </c>
-      <c r="K130" t="n">
-        <v>994</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5384,26 +5032,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J131" t="n">
         <v>994</v>
       </c>
-      <c r="K131" t="n">
-        <v>994</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5428,26 +5073,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J132" t="n">
         <v>994</v>
       </c>
-      <c r="K132" t="n">
-        <v>994</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5472,26 +5114,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J133" t="n">
         <v>994</v>
       </c>
-      <c r="K133" t="n">
-        <v>994</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5516,26 +5155,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J134" t="n">
         <v>994</v>
       </c>
-      <c r="K134" t="n">
-        <v>994</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5560,26 +5196,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J135" t="n">
         <v>994</v>
       </c>
-      <c r="K135" t="n">
-        <v>994</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5604,26 +5237,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J136" t="n">
         <v>994</v>
       </c>
-      <c r="K136" t="n">
-        <v>994</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5648,26 +5278,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J137" t="n">
         <v>994</v>
       </c>
-      <c r="K137" t="n">
-        <v>994</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5692,26 +5319,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J138" t="n">
         <v>994</v>
       </c>
-      <c r="K138" t="n">
-        <v>994</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5736,26 +5360,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J139" t="n">
         <v>994</v>
       </c>
-      <c r="K139" t="n">
-        <v>994</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5780,26 +5401,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J140" t="n">
         <v>994</v>
       </c>
-      <c r="K140" t="n">
-        <v>994</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5824,26 +5442,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J141" t="n">
         <v>994</v>
       </c>
-      <c r="K141" t="n">
-        <v>994</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5868,26 +5483,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J142" t="n">
         <v>994</v>
       </c>
-      <c r="K142" t="n">
-        <v>994</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5912,26 +5524,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J143" t="n">
         <v>994</v>
       </c>
-      <c r="K143" t="n">
-        <v>994</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5956,26 +5565,23 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J144" t="n">
         <v>994</v>
       </c>
-      <c r="K144" t="n">
-        <v>994</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6000,26 +5606,23 @@
         <v>-610479.4958147499</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="J145" t="n">
         <v>994</v>
       </c>
-      <c r="K145" t="n">
-        <v>994</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6044,26 +5647,23 @@
         <v>-610479.4958147499</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="J146" t="n">
-        <v>995</v>
-      </c>
-      <c r="K146" t="n">
-        <v>994</v>
-      </c>
-      <c r="L146" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6088,26 +5688,23 @@
         <v>-610479.4958147499</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="J147" t="n">
-        <v>995</v>
-      </c>
-      <c r="K147" t="n">
-        <v>994</v>
-      </c>
-      <c r="L147" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6132,26 +5729,23 @@
         <v>-610280.3516147499</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="J148" t="n">
-        <v>995</v>
-      </c>
-      <c r="K148" t="n">
-        <v>994</v>
-      </c>
-      <c r="L148" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6178,22 +5772,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>994</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>994</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6220,22 +5811,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>994</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>994</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6260,24 +5848,21 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>994</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>994</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.002042253521127</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6304,22 +5889,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>994</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6344,24 +5920,15 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>994</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6386,24 +5953,15 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>994</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6428,24 +5986,15 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>994</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6470,24 +6019,15 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>994</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6512,24 +6052,15 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>994</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6554,26 +6085,17 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>994</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-22 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>52691.59568064001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-599320.6246193601</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-615926.8043193601</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-620334.96331936</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2827,14 +2827,10 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>994</v>
-      </c>
-      <c r="J74" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2867,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>994</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2906,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>994</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3239,14 +3223,10 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>994</v>
-      </c>
-      <c r="J86" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3279,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>994</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3318,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>994</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3387,14 +3355,10 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>994</v>
-      </c>
-      <c r="J90" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3424,7 +3388,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>994</v>
@@ -3432,11 +3396,7 @@
       <c r="J91" t="n">
         <v>994</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3465,7 +3425,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>994</v>
@@ -3506,7 +3466,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>994</v>
@@ -3514,7 +3474,11 @@
       <c r="J93" t="n">
         <v>994</v>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3543,7 +3507,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>994</v>
@@ -3551,11 +3515,7 @@
       <c r="J94" t="n">
         <v>994</v>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3584,7 +3544,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>994</v>
@@ -3625,7 +3585,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>994</v>
@@ -3633,7 +3593,11 @@
       <c r="J96" t="n">
         <v>994</v>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3662,7 +3626,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>994</v>
@@ -3670,11 +3634,7 @@
       <c r="J97" t="n">
         <v>994</v>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3703,7 +3663,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>994</v>
@@ -3744,7 +3704,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>994</v>
@@ -3752,7 +3712,11 @@
       <c r="J99" t="n">
         <v>994</v>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3781,7 +3745,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>994</v>
@@ -3789,11 +3753,7 @@
       <c r="J100" t="n">
         <v>994</v>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3822,7 +3782,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>994</v>
@@ -3863,7 +3823,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>994</v>
@@ -3871,7 +3831,11 @@
       <c r="J102" t="n">
         <v>994</v>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3900,7 +3864,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>994</v>
@@ -3908,11 +3872,7 @@
       <c r="J103" t="n">
         <v>994</v>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3941,7 +3901,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>994</v>
@@ -3982,7 +3942,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>994</v>
@@ -3990,7 +3950,11 @@
       <c r="J105" t="n">
         <v>994</v>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +3983,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>994</v>
@@ -4027,11 +3991,7 @@
       <c r="J106" t="n">
         <v>994</v>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4060,7 +4020,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>994</v>
@@ -4101,7 +4061,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>994</v>
@@ -4109,7 +4069,11 @@
       <c r="J108" t="n">
         <v>994</v>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4138,7 +4102,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>994</v>
@@ -4146,11 +4110,7 @@
       <c r="J109" t="n">
         <v>994</v>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4179,7 +4139,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>994</v>
@@ -4220,7 +4180,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>994</v>
@@ -4228,7 +4188,11 @@
       <c r="J111" t="n">
         <v>994</v>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4257,7 +4221,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>994</v>
@@ -4265,11 +4229,7 @@
       <c r="J112" t="n">
         <v>994</v>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4298,7 +4258,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>994</v>
@@ -4339,7 +4299,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>994</v>
@@ -4347,7 +4307,11 @@
       <c r="J114" t="n">
         <v>994</v>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4376,7 +4340,7 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>994</v>
@@ -4384,11 +4348,7 @@
       <c r="J115" t="n">
         <v>994</v>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4417,7 +4377,7 @@
         <v>-625957.4486147499</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>994</v>
@@ -4458,7 +4418,7 @@
         <v>-625957.4486147499</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>993</v>
@@ -4499,7 +4459,7 @@
         <v>-625957.4486147499</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>993</v>
@@ -4540,7 +4500,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>993</v>
@@ -4581,7 +4541,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>994</v>
@@ -4622,7 +4582,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>994</v>
@@ -4663,7 +4623,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>994</v>
@@ -4704,7 +4664,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>994</v>
@@ -4745,7 +4705,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>994</v>
@@ -4786,7 +4746,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>994</v>
@@ -4827,7 +4787,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>994</v>
@@ -4868,7 +4828,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>994</v>
@@ -4909,7 +4869,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>994</v>
@@ -4950,7 +4910,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>994</v>
@@ -4991,7 +4951,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>994</v>
@@ -5032,7 +4992,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>994</v>
@@ -5073,7 +5033,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>994</v>
@@ -5114,7 +5074,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>994</v>
@@ -5155,7 +5115,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>994</v>
@@ -5196,7 +5156,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>994</v>
@@ -5237,7 +5197,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>994</v>
@@ -5278,7 +5238,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>994</v>
@@ -5319,7 +5279,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>994</v>
@@ -5360,7 +5320,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>994</v>
@@ -5401,7 +5361,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>994</v>
@@ -5442,7 +5402,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>994</v>
@@ -5483,7 +5443,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>994</v>
@@ -5524,7 +5484,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>994</v>
@@ -5565,7 +5525,7 @@
         <v>-625702.4907147499</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>994</v>
@@ -5606,7 +5566,7 @@
         <v>-610479.4958147499</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>994</v>
@@ -5647,7 +5607,7 @@
         <v>-610479.4958147499</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>995</v>
@@ -5688,7 +5648,7 @@
         <v>-610479.4958147499</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>995</v>
@@ -5729,7 +5689,7 @@
         <v>-610280.3516147499</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>995</v>
@@ -5770,9 +5730,11 @@
         <v>-610280.3516147499</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1000</v>
+      </c>
       <c r="J149" t="n">
         <v>994</v>
       </c>
@@ -5809,9 +5771,11 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1000</v>
+      </c>
       <c r="J150" t="n">
         <v>994</v>
       </c>
@@ -5848,7 +5812,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
@@ -5856,11 +5820,11 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.002042253521127</v>
+        <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
@@ -5890,8 +5854,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>994</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +5890,17 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>994</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5953,11 +5929,17 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>994</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5968,17 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>994</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +6007,17 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>994</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6052,11 +6046,17 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>994</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6085,17 +6085,23 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>994</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
       <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-22 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>52691.59568064001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-599320.6246193601</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-615926.8043193601</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-616392.56461936</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-617192.20441936</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-619162.20441936</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-618234.45791936</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-620334.96331936</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -3388,14 +3388,10 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>994</v>
-      </c>
-      <c r="J91" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3425,19 +3421,11 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>994</v>
-      </c>
-      <c r="J92" t="n">
-        <v>994</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3466,19 +3454,11 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>994</v>
-      </c>
-      <c r="J93" t="n">
-        <v>994</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3507,14 +3487,10 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>994</v>
-      </c>
-      <c r="J94" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3544,19 +3520,11 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>994</v>
-      </c>
-      <c r="J95" t="n">
-        <v>994</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3585,19 +3553,11 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>994</v>
-      </c>
-      <c r="J96" t="n">
-        <v>994</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3626,14 +3586,10 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>994</v>
-      </c>
-      <c r="J97" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3663,19 +3619,11 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>994</v>
-      </c>
-      <c r="J98" t="n">
-        <v>994</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3704,19 +3652,11 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>994</v>
-      </c>
-      <c r="J99" t="n">
-        <v>994</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3745,14 +3685,10 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>994</v>
-      </c>
-      <c r="J100" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
@@ -3782,19 +3718,11 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>994</v>
-      </c>
-      <c r="J101" t="n">
-        <v>994</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3823,19 +3751,11 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>994</v>
-      </c>
-      <c r="J102" t="n">
-        <v>994</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3864,14 +3784,10 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>994</v>
-      </c>
-      <c r="J103" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
@@ -3909,11 +3825,7 @@
       <c r="J104" t="n">
         <v>994</v>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3991,7 +3903,11 @@
       <c r="J106" t="n">
         <v>994</v>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4028,11 +3944,7 @@
       <c r="J107" t="n">
         <v>994</v>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4110,7 +4022,11 @@
       <c r="J109" t="n">
         <v>994</v>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4063,7 @@
       <c r="J110" t="n">
         <v>994</v>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4229,7 +4141,11 @@
       <c r="J112" t="n">
         <v>994</v>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4266,11 +4182,7 @@
       <c r="J113" t="n">
         <v>994</v>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4348,7 +4260,11 @@
       <c r="J115" t="n">
         <v>994</v>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5730,11 +5646,9 @@
         <v>-610280.3516147499</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>994</v>
       </c>
@@ -5771,11 +5685,9 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>994</v>
       </c>
@@ -6102,6 +6014,6 @@
       <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-22 BackTest WAVES.xlsx
@@ -814,7 +814,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5334.735680640002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>52691.59568064001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-599320.6246193601</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-615926.8043193601</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-615892.56461936</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-616392.56461936</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-617192.20441936</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-619162.20441936</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-618234.45791936</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-620334.96331936</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -3190,10 +3190,14 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>994</v>
+      </c>
+      <c r="J85" t="n">
+        <v>994</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3223,11 +3227,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>994</v>
+      </c>
+      <c r="J86" t="n">
+        <v>994</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3271,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>994</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,10 +3307,14 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>994</v>
+      </c>
+      <c r="J88" t="n">
+        <v>994</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
@@ -3325,8 +3347,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>994</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3383,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>994</v>
+      </c>
+      <c r="J90" t="n">
+        <v>994</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,10 +3424,14 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>994</v>
+      </c>
+      <c r="J91" t="n">
+        <v>994</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3421,11 +3461,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>994</v>
+      </c>
+      <c r="J92" t="n">
+        <v>994</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3502,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>994</v>
+      </c>
+      <c r="J93" t="n">
+        <v>994</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,10 +3543,14 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>994</v>
+      </c>
+      <c r="J94" t="n">
+        <v>994</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3520,11 +3580,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>994</v>
+      </c>
+      <c r="J95" t="n">
+        <v>994</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3621,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>994</v>
+      </c>
+      <c r="J96" t="n">
+        <v>994</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,10 +3662,14 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>994</v>
+      </c>
+      <c r="J97" t="n">
+        <v>994</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3619,11 +3699,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>994</v>
+      </c>
+      <c r="J98" t="n">
+        <v>994</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3740,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>994</v>
+      </c>
+      <c r="J99" t="n">
+        <v>994</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,10 +3781,14 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>994</v>
+      </c>
+      <c r="J100" t="n">
+        <v>994</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
@@ -3718,11 +3818,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>994</v>
+      </c>
+      <c r="J101" t="n">
+        <v>994</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3859,19 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>994</v>
+      </c>
+      <c r="J102" t="n">
+        <v>994</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,10 +3900,14 @@
         <v>-625407.4486147499</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>994</v>
+      </c>
+      <c r="J103" t="n">
+        <v>994</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
@@ -3825,7 +3945,11 @@
       <c r="J104" t="n">
         <v>994</v>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3903,11 +4027,7 @@
       <c r="J106" t="n">
         <v>994</v>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3944,7 +4064,11 @@
       <c r="J107" t="n">
         <v>994</v>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4022,11 +4146,7 @@
       <c r="J109" t="n">
         <v>994</v>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4063,7 +4183,11 @@
       <c r="J110" t="n">
         <v>994</v>
       </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4141,11 +4265,7 @@
       <c r="J112" t="n">
         <v>994</v>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4182,7 +4302,11 @@
       <c r="J113" t="n">
         <v>994</v>
       </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4260,11 +4384,7 @@
       <c r="J115" t="n">
         <v>994</v>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5646,9 +5766,11 @@
         <v>-610280.3516147499</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1000</v>
+      </c>
       <c r="J149" t="n">
         <v>994</v>
       </c>
@@ -5685,7 +5807,7 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
@@ -5693,11 +5815,11 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>1.002042253521127</v>
       </c>
       <c r="M150" t="inlineStr"/>
     </row>
@@ -5724,17 +5846,11 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>994</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5763,17 +5879,11 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>994</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5802,17 +5912,11 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>994</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5841,17 +5945,11 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>994</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5880,17 +5978,11 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>994</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5919,17 +6011,11 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>994</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5958,17 +6044,11 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>994</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5997,17 +6077,11 @@
         <v>-609185.3813147498</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>994</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-22 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-22 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>4298.740380640002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3300</v>
       </c>
       <c r="G3" t="n">
-        <v>7598.740380640002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2264.0047</v>
       </c>
       <c r="G4" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>594.8499</v>
       </c>
       <c r="G5" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>441.1453</v>
       </c>
       <c r="G6" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>0.0001</v>
       </c>
       <c r="G7" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1.9979</v>
       </c>
       <c r="G8" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>118.1899</v>
       </c>
       <c r="G9" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>188.7098</v>
       </c>
       <c r="G10" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>31.604</v>
       </c>
       <c r="G11" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>135.307</v>
       </c>
       <c r="G12" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>158.6699</v>
       </c>
       <c r="G13" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>955.1633</v>
       </c>
       <c r="G14" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>222.6979</v>
       </c>
       <c r="G15" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>527.58</v>
       </c>
       <c r="G16" t="n">
-        <v>5334.735680640002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>47356.86</v>
       </c>
       <c r="G17" t="n">
-        <v>52691.59568064001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>652012.2203</v>
       </c>
       <c r="G18" t="n">
-        <v>-599320.6246193601</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>16606.1797</v>
       </c>
       <c r="G19" t="n">
-        <v>-615926.8043193601</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>34.2397</v>
       </c>
       <c r="G20" t="n">
-        <v>-615892.56461936</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>-615892.56461936</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3521.504</v>
       </c>
       <c r="G22" t="n">
-        <v>-615892.56461936</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>3900</v>
       </c>
       <c r="G23" t="n">
-        <v>-615892.56461936</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>826</v>
       </c>
       <c r="G24" t="n">
-        <v>-615892.56461936</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>0.377</v>
       </c>
       <c r="G25" t="n">
-        <v>-615892.56461936</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>500</v>
       </c>
       <c r="G26" t="n">
-        <v>-616392.56461936</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>799.6398</v>
       </c>
       <c r="G27" t="n">
-        <v>-617192.20441936</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1970</v>
       </c>
       <c r="G28" t="n">
-        <v>-619162.20441936</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>927.7465</v>
       </c>
       <c r="G29" t="n">
-        <v>-618234.45791936</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2100.5054</v>
       </c>
       <c r="G30" t="n">
-        <v>-620334.96331936</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>57</v>
       </c>
       <c r="G31" t="n">
-        <v>-620391.96331936</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2059</v>
       </c>
       <c r="G32" t="n">
-        <v>-622450.96331936</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1013.6314</v>
       </c>
       <c r="G33" t="n">
-        <v>-623464.59471936</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-623454.59471936</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>80.32259999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-623454.59471936</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2.90802978</v>
       </c>
       <c r="G36" t="n">
-        <v>-623451.68668958</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>855.8632</v>
       </c>
       <c r="G37" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>172.05</v>
       </c>
       <c r="G38" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>38.0169</v>
       </c>
       <c r="G39" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>62.82</v>
       </c>
       <c r="G40" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>63.8561</v>
       </c>
       <c r="G41" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>288.4949</v>
       </c>
       <c r="G42" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>36.7473</v>
       </c>
       <c r="G43" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>48.49</v>
       </c>
       <c r="G44" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>32.7805</v>
       </c>
       <c r="G45" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>32.9852</v>
       </c>
       <c r="G46" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>90.4999</v>
       </c>
       <c r="G47" t="n">
-        <v>-624307.54988958</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1.8179</v>
       </c>
       <c r="G48" t="n">
-        <v>-624305.73198958</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>33.782</v>
       </c>
       <c r="G49" t="n">
-        <v>-624339.51398958</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>34.5487</v>
       </c>
       <c r="G50" t="n">
-        <v>-624339.51398958</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>201.26798832</v>
       </c>
       <c r="G51" t="n">
-        <v>-624138.24600126</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>301.53784299</v>
       </c>
       <c r="G52" t="n">
-        <v>-623836.70815827</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>4.46274352</v>
       </c>
       <c r="G53" t="n">
-        <v>-623832.24541475</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>35.6106</v>
       </c>
       <c r="G54" t="n">
-        <v>-623867.85601475</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>3326.3894</v>
       </c>
       <c r="G55" t="n">
-        <v>-623867.85601475</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1563.6411</v>
       </c>
       <c r="G56" t="n">
-        <v>-623867.85601475</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>347.0609</v>
       </c>
       <c r="G57" t="n">
-        <v>-623867.85601475</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>437.5502</v>
       </c>
       <c r="G58" t="n">
-        <v>-623867.85601475</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>39.76</v>
       </c>
       <c r="G59" t="n">
-        <v>-623867.85601475</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1490</v>
       </c>
       <c r="G60" t="n">
-        <v>-623867.85601475</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2945.1476</v>
       </c>
       <c r="G61" t="n">
-        <v>-623867.85601475</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1717</v>
       </c>
       <c r="G62" t="n">
-        <v>-625584.85601475</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1370</v>
       </c>
       <c r="G63" t="n">
-        <v>-625584.85601475</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>177.4074</v>
       </c>
       <c r="G64" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>146.415</v>
       </c>
       <c r="G65" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2547.1941</v>
       </c>
       <c r="G66" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>116.8583</v>
       </c>
       <c r="G67" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>270.2406</v>
       </c>
       <c r="G68" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>96.5889</v>
       </c>
       <c r="G69" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>476.2725</v>
       </c>
       <c r="G70" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>513.9725</v>
       </c>
       <c r="G71" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>78.6437</v>
       </c>
       <c r="G72" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>617.33</v>
       </c>
       <c r="G73" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>300</v>
       </c>
       <c r="G74" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>2542.525</v>
       </c>
       <c r="G75" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>402.6196</v>
       </c>
       <c r="G76" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>46.9914</v>
       </c>
       <c r="G77" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>127.6834</v>
       </c>
       <c r="G78" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>672.9018</v>
       </c>
       <c r="G79" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>111.7045</v>
       </c>
       <c r="G80" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>75.1069</v>
       </c>
       <c r="G81" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>546.2184999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>107.9423</v>
       </c>
       <c r="G83" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>84.04519999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,22 +2933,15 @@
         <v>211.2378</v>
       </c>
       <c r="G85" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>994</v>
-      </c>
-      <c r="J85" t="n">
-        <v>994</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3224,26 +2963,15 @@
         <v>1036.6009</v>
       </c>
       <c r="G86" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>994</v>
-      </c>
-      <c r="J86" t="n">
-        <v>994</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3265,24 +2993,15 @@
         <v>727.3181</v>
       </c>
       <c r="G87" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>994</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3304,22 +3023,15 @@
         <v>135.8551</v>
       </c>
       <c r="G88" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>994</v>
-      </c>
-      <c r="J88" t="n">
-        <v>994</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3341,24 +3053,15 @@
         <v>272.3588</v>
       </c>
       <c r="G89" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>994</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3380,26 +3083,15 @@
         <v>490.0968</v>
       </c>
       <c r="G90" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>994</v>
-      </c>
-      <c r="J90" t="n">
-        <v>994</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3421,22 +3113,15 @@
         <v>2759.7855</v>
       </c>
       <c r="G91" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>994</v>
-      </c>
-      <c r="J91" t="n">
-        <v>994</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3458,26 +3143,15 @@
         <v>155.3535</v>
       </c>
       <c r="G92" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>994</v>
-      </c>
-      <c r="J92" t="n">
-        <v>994</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3499,26 +3173,15 @@
         <v>1057.33</v>
       </c>
       <c r="G93" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>994</v>
-      </c>
-      <c r="J93" t="n">
-        <v>994</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3540,22 +3203,15 @@
         <v>3198.35</v>
       </c>
       <c r="G94" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>994</v>
-      </c>
-      <c r="J94" t="n">
-        <v>994</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3577,26 +3233,15 @@
         <v>1065.03</v>
       </c>
       <c r="G95" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>994</v>
-      </c>
-      <c r="J95" t="n">
-        <v>994</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3618,26 +3263,15 @@
         <v>1699.1002</v>
       </c>
       <c r="G96" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>994</v>
-      </c>
-      <c r="J96" t="n">
-        <v>994</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3659,22 +3293,15 @@
         <v>3064.03</v>
       </c>
       <c r="G97" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>994</v>
-      </c>
-      <c r="J97" t="n">
-        <v>994</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3696,26 +3323,15 @@
         <v>1241.6707</v>
       </c>
       <c r="G98" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>994</v>
-      </c>
-      <c r="J98" t="n">
-        <v>994</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3737,26 +3353,15 @@
         <v>4409.3024</v>
       </c>
       <c r="G99" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>994</v>
-      </c>
-      <c r="J99" t="n">
-        <v>994</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3778,22 +3383,15 @@
         <v>2004</v>
       </c>
       <c r="G100" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>994</v>
-      </c>
-      <c r="J100" t="n">
-        <v>994</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3815,26 +3413,15 @@
         <v>1372</v>
       </c>
       <c r="G101" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>994</v>
-      </c>
-      <c r="J101" t="n">
-        <v>994</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3856,26 +3443,15 @@
         <v>650.4689</v>
       </c>
       <c r="G102" t="n">
-        <v>-625407.4486147499</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>994</v>
-      </c>
-      <c r="J102" t="n">
-        <v>994</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3897,22 +3473,19 @@
         <v>12542.1665</v>
       </c>
       <c r="G103" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I103" t="n">
         <v>994</v>
       </c>
-      <c r="J103" t="n">
-        <v>994</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3934,26 +3507,23 @@
         <v>2175</v>
       </c>
       <c r="G104" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I104" t="n">
         <v>994</v>
       </c>
-      <c r="J104" t="n">
-        <v>994</v>
-      </c>
-      <c r="K104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3975,26 +3545,23 @@
         <v>9829.5378</v>
       </c>
       <c r="G105" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I105" t="n">
         <v>994</v>
       </c>
-      <c r="J105" t="n">
-        <v>994</v>
-      </c>
-      <c r="K105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4016,22 +3583,19 @@
         <v>2135.4629</v>
       </c>
       <c r="G106" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I106" t="n">
         <v>994</v>
       </c>
-      <c r="J106" t="n">
-        <v>994</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4053,26 +3617,23 @@
         <v>385.7956</v>
       </c>
       <c r="G107" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I107" t="n">
         <v>994</v>
       </c>
-      <c r="J107" t="n">
-        <v>994</v>
-      </c>
-      <c r="K107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4094,26 +3655,23 @@
         <v>1572.157</v>
       </c>
       <c r="G108" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I108" t="n">
         <v>994</v>
       </c>
-      <c r="J108" t="n">
-        <v>994</v>
-      </c>
-      <c r="K108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4135,22 +3693,19 @@
         <v>1727.0244</v>
       </c>
       <c r="G109" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I109" t="n">
         <v>994</v>
       </c>
-      <c r="J109" t="n">
-        <v>994</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4172,26 +3727,23 @@
         <v>692.8955</v>
       </c>
       <c r="G110" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I110" t="n">
         <v>994</v>
       </c>
-      <c r="J110" t="n">
-        <v>994</v>
-      </c>
-      <c r="K110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4213,26 +3765,23 @@
         <v>1842.5726</v>
       </c>
       <c r="G111" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I111" t="n">
         <v>994</v>
       </c>
-      <c r="J111" t="n">
-        <v>994</v>
-      </c>
-      <c r="K111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4254,22 +3803,19 @@
         <v>888.7165</v>
       </c>
       <c r="G112" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I112" t="n">
         <v>994</v>
       </c>
-      <c r="J112" t="n">
-        <v>994</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4291,26 +3837,23 @@
         <v>5030.2</v>
       </c>
       <c r="G113" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I113" t="n">
         <v>994</v>
       </c>
-      <c r="J113" t="n">
-        <v>994</v>
-      </c>
-      <c r="K113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4332,26 +3875,23 @@
         <v>2588.8266</v>
       </c>
       <c r="G114" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I114" t="n">
         <v>994</v>
       </c>
-      <c r="J114" t="n">
-        <v>994</v>
-      </c>
-      <c r="K114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4373,22 +3913,19 @@
         <v>256.2455</v>
       </c>
       <c r="G115" t="n">
-        <v>-625407.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I115" t="n">
         <v>994</v>
       </c>
-      <c r="J115" t="n">
-        <v>994</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4410,26 +3947,23 @@
         <v>550</v>
       </c>
       <c r="G116" t="n">
-        <v>-625957.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I116" t="n">
         <v>994</v>
       </c>
-      <c r="J116" t="n">
-        <v>994</v>
-      </c>
-      <c r="K116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4451,26 +3985,23 @@
         <v>299.1306</v>
       </c>
       <c r="G117" t="n">
-        <v>-625957.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>993</v>
       </c>
       <c r="I117" t="n">
-        <v>993</v>
-      </c>
-      <c r="J117" t="n">
-        <v>994</v>
-      </c>
-      <c r="K117" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4492,26 +4023,23 @@
         <v>191.0152</v>
       </c>
       <c r="G118" t="n">
-        <v>-625957.4486147499</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>993</v>
       </c>
       <c r="I118" t="n">
-        <v>993</v>
-      </c>
-      <c r="J118" t="n">
-        <v>994</v>
-      </c>
-      <c r="K118" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4533,26 +4061,23 @@
         <v>254.9579</v>
       </c>
       <c r="G119" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>993</v>
       </c>
       <c r="I119" t="n">
-        <v>993</v>
-      </c>
-      <c r="J119" t="n">
-        <v>994</v>
-      </c>
-      <c r="K119" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4574,26 +4099,23 @@
         <v>1512.1793</v>
       </c>
       <c r="G120" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I120" t="n">
         <v>994</v>
       </c>
-      <c r="J120" t="n">
-        <v>994</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4615,26 +4137,23 @@
         <v>220</v>
       </c>
       <c r="G121" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I121" t="n">
         <v>994</v>
       </c>
-      <c r="J121" t="n">
-        <v>994</v>
-      </c>
-      <c r="K121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4656,26 +4175,23 @@
         <v>620</v>
       </c>
       <c r="G122" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I122" t="n">
         <v>994</v>
       </c>
-      <c r="J122" t="n">
-        <v>994</v>
-      </c>
-      <c r="K122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4697,26 +4213,23 @@
         <v>684.7947</v>
       </c>
       <c r="G123" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I123" t="n">
         <v>994</v>
       </c>
-      <c r="J123" t="n">
-        <v>994</v>
-      </c>
-      <c r="K123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4738,26 +4251,23 @@
         <v>820</v>
       </c>
       <c r="G124" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I124" t="n">
         <v>994</v>
       </c>
-      <c r="J124" t="n">
-        <v>994</v>
-      </c>
-      <c r="K124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4779,26 +4289,23 @@
         <v>251.8292</v>
       </c>
       <c r="G125" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I125" t="n">
         <v>994</v>
       </c>
-      <c r="J125" t="n">
-        <v>994</v>
-      </c>
-      <c r="K125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4820,26 +4327,23 @@
         <v>94.6183</v>
       </c>
       <c r="G126" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I126" t="n">
         <v>994</v>
       </c>
-      <c r="J126" t="n">
-        <v>994</v>
-      </c>
-      <c r="K126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4861,26 +4365,23 @@
         <v>153.416</v>
       </c>
       <c r="G127" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I127" t="n">
         <v>994</v>
       </c>
-      <c r="J127" t="n">
-        <v>994</v>
-      </c>
-      <c r="K127" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4902,26 +4403,23 @@
         <v>408.2511</v>
       </c>
       <c r="G128" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I128" t="n">
         <v>994</v>
       </c>
-      <c r="J128" t="n">
-        <v>994</v>
-      </c>
-      <c r="K128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4943,26 +4441,23 @@
         <v>34.1102</v>
       </c>
       <c r="G129" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I129" t="n">
         <v>994</v>
       </c>
-      <c r="J129" t="n">
-        <v>994</v>
-      </c>
-      <c r="K129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4984,26 +4479,23 @@
         <v>235.4151</v>
       </c>
       <c r="G130" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I130" t="n">
         <v>994</v>
       </c>
-      <c r="J130" t="n">
-        <v>994</v>
-      </c>
-      <c r="K130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5025,26 +4517,23 @@
         <v>205</v>
       </c>
       <c r="G131" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I131" t="n">
         <v>994</v>
       </c>
-      <c r="J131" t="n">
-        <v>994</v>
-      </c>
-      <c r="K131" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5066,26 +4555,23 @@
         <v>860.3591</v>
       </c>
       <c r="G132" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I132" t="n">
         <v>994</v>
       </c>
-      <c r="J132" t="n">
-        <v>994</v>
-      </c>
-      <c r="K132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5107,26 +4593,23 @@
         <v>858.1438000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I133" t="n">
         <v>994</v>
       </c>
-      <c r="J133" t="n">
-        <v>994</v>
-      </c>
-      <c r="K133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5148,26 +4631,23 @@
         <v>1592.0436</v>
       </c>
       <c r="G134" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I134" t="n">
         <v>994</v>
       </c>
-      <c r="J134" t="n">
-        <v>994</v>
-      </c>
-      <c r="K134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5189,26 +4669,23 @@
         <v>133.699</v>
       </c>
       <c r="G135" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I135" t="n">
         <v>994</v>
       </c>
-      <c r="J135" t="n">
-        <v>994</v>
-      </c>
-      <c r="K135" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5230,26 +4707,23 @@
         <v>267.5806</v>
       </c>
       <c r="G136" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I136" t="n">
         <v>994</v>
       </c>
-      <c r="J136" t="n">
-        <v>994</v>
-      </c>
-      <c r="K136" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5271,26 +4745,23 @@
         <v>2786.2773</v>
       </c>
       <c r="G137" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I137" t="n">
         <v>994</v>
       </c>
-      <c r="J137" t="n">
-        <v>994</v>
-      </c>
-      <c r="K137" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5312,26 +4783,23 @@
         <v>11579.0013</v>
       </c>
       <c r="G138" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I138" t="n">
         <v>994</v>
       </c>
-      <c r="J138" t="n">
-        <v>994</v>
-      </c>
-      <c r="K138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5353,26 +4821,23 @@
         <v>5590.2399</v>
       </c>
       <c r="G139" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I139" t="n">
         <v>994</v>
       </c>
-      <c r="J139" t="n">
-        <v>994</v>
-      </c>
-      <c r="K139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5394,26 +4859,23 @@
         <v>1632.9337</v>
       </c>
       <c r="G140" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I140" t="n">
         <v>994</v>
       </c>
-      <c r="J140" t="n">
-        <v>994</v>
-      </c>
-      <c r="K140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5435,26 +4897,23 @@
         <v>5380.2981</v>
       </c>
       <c r="G141" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I141" t="n">
         <v>994</v>
       </c>
-      <c r="J141" t="n">
-        <v>994</v>
-      </c>
-      <c r="K141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5476,26 +4935,23 @@
         <v>7.0682</v>
       </c>
       <c r="G142" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I142" t="n">
         <v>994</v>
       </c>
-      <c r="J142" t="n">
-        <v>994</v>
-      </c>
-      <c r="K142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5517,26 +4973,23 @@
         <v>1470.6596</v>
       </c>
       <c r="G143" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I143" t="n">
         <v>994</v>
       </c>
-      <c r="J143" t="n">
-        <v>994</v>
-      </c>
-      <c r="K143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5558,26 +5011,23 @@
         <v>3386.3455</v>
       </c>
       <c r="G144" t="n">
-        <v>-625702.4907147499</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I144" t="n">
         <v>994</v>
       </c>
-      <c r="J144" t="n">
-        <v>994</v>
-      </c>
-      <c r="K144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5599,26 +5049,23 @@
         <v>15222.9949</v>
       </c>
       <c r="G145" t="n">
-        <v>-610479.4958147499</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I145" t="n">
         <v>994</v>
       </c>
-      <c r="J145" t="n">
-        <v>994</v>
-      </c>
-      <c r="K145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,26 +5087,23 @@
         <v>6046.7589</v>
       </c>
       <c r="G146" t="n">
-        <v>-610479.4958147499</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>995</v>
       </c>
       <c r="I146" t="n">
-        <v>995</v>
-      </c>
-      <c r="J146" t="n">
-        <v>994</v>
-      </c>
-      <c r="K146" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="J146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5681,26 +5125,23 @@
         <v>3846</v>
       </c>
       <c r="G147" t="n">
-        <v>-610479.4958147499</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>995</v>
       </c>
       <c r="I147" t="n">
-        <v>995</v>
-      </c>
-      <c r="J147" t="n">
-        <v>994</v>
-      </c>
-      <c r="K147" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5722,26 +5163,23 @@
         <v>199.1442</v>
       </c>
       <c r="G148" t="n">
-        <v>-610280.3516147499</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>995</v>
       </c>
       <c r="I148" t="n">
-        <v>995</v>
-      </c>
-      <c r="J148" t="n">
-        <v>994</v>
-      </c>
-      <c r="K148" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5763,26 +5201,21 @@
         <v>701.0208</v>
       </c>
       <c r="G149" t="n">
-        <v>-610280.3516147499</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J149" t="n">
-        <v>994</v>
-      </c>
-      <c r="K149" t="inlineStr">
+        <v>994</v>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5804,24 +5237,21 @@
         <v>1094.9703</v>
       </c>
       <c r="G150" t="n">
-        <v>-609185.3813147498</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>994</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1.002042253521127</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>994</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5843,18 +5273,21 @@
         <v>50</v>
       </c>
       <c r="G151" t="n">
-        <v>-609185.3813147498</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>994</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5876,18 +5309,21 @@
         <v>175</v>
       </c>
       <c r="G152" t="n">
-        <v>-609185.3813147498</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>994</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5909,18 +5345,21 @@
         <v>540</v>
       </c>
       <c r="G153" t="n">
-        <v>-609185.3813147498</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>994</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5942,18 +5381,21 @@
         <v>769.0416</v>
       </c>
       <c r="G154" t="n">
-        <v>-609185.3813147498</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>994</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1.002042253521127</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5975,18 +5417,15 @@
         <v>695</v>
       </c>
       <c r="G155" t="n">
-        <v>-609185.3813147498</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6008,18 +5447,15 @@
         <v>6230.1171</v>
       </c>
       <c r="G156" t="n">
-        <v>-609185.3813147498</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6041,18 +5477,15 @@
         <v>170</v>
       </c>
       <c r="G157" t="n">
-        <v>-609185.3813147498</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,18 +5507,15 @@
         <v>10720.5299</v>
       </c>
       <c r="G158" t="n">
-        <v>-609185.3813147498</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
